--- a/classification/droptc/bert-base-uncased/freeze/37622020/prediction.xlsx
+++ b/classification/droptc/bert-base-uncased/freeze/37622020/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.490662693977356</v>
+        <v>0.7236999273300171</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6873584985733032</v>
+        <v>0.9318755865097046</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7566469311714172</v>
+        <v>0.6764802932739258</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7200934290885925</v>
+        <v>0.8954309225082397</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5671968460083008</v>
+        <v>0.6521791219711304</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.8280883431434631</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6259039044380188</v>
+        <v>0.3363775312900543</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.7811285257339478</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9045897126197815</v>
+        <v>0.8782180547714233</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7189790606498718</v>
+        <v>0.7197896242141724</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7922397255897522</v>
+        <v>0.629813551902771</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8294130563735962</v>
+        <v>0.9198954701423645</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7710443139076233</v>
+        <v>0.6827936768531799</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.3254638314247131</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.3083497583866119</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5971357822418213</v>
+        <v>0.3756870627403259</v>
       </c>
     </row>
     <row r="18">
@@ -931,14 +931,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4121190905570984</v>
+        <v>0.4228047132492065</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.9198954701423645</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +982,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.3391622304916382</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.858244001865387</v>
+        <v>0.3903425335884094</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3306435942649841</v>
+        <v>0.4394560754299164</v>
       </c>
     </row>
     <row r="23">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.353993684053421</v>
+        <v>0.4394560754299164</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5484864711761475</v>
+        <v>0.5718740820884705</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5361296534538269</v>
+        <v>0.4247999489307404</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.5056156516075134</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9107267260551453</v>
+        <v>0.5057339072227478</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.8220974206924438</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.882060706615448</v>
+        <v>0.8209079504013062</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8114169239997864</v>
+        <v>0.6736270189285278</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.7548712491989136</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7081098556518555</v>
+        <v>0.6632748246192932</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.897392213344574</v>
+        <v>0.8209227323532104</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.7903044819831848</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6441190838813782</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8044729828834534</v>
+        <v>0.5460052490234375</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7045561671257019</v>
+        <v>0.7620885968208313</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7929969429969788</v>
+        <v>0.5671412348747253</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8707226514816284</v>
+        <v>0.6772415637969971</v>
       </c>
     </row>
     <row r="40">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.670402467250824</v>
+        <v>0.7854988574981689</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5718258023262024</v>
+        <v>0.3762261569499969</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6284987926483154</v>
+        <v>0.5851091742515564</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4069806933403015</v>
+        <v>0.5526993274688721</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7054246068000793</v>
+        <v>0.7389496564865112</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.471246600151062</v>
+        <v>0.7530063986778259</v>
       </c>
     </row>
     <row r="46">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8250665068626404</v>
+        <v>0.5572461485862732</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6737126708030701</v>
+        <v>0.505200982093811</v>
       </c>
     </row>
     <row r="48">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6288363337516785</v>
+        <v>0.4523245394229889</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.7801505923271179</v>
       </c>
     </row>
     <row r="50">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6519913673400879</v>
+        <v>0.6928372979164124</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6126035451889038</v>
+        <v>0.3695727586746216</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8335769772529602</v>
+        <v>0.8337275385856628</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4078623354434967</v>
+        <v>0.7498916983604431</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6440590023994446</v>
+        <v>0.7790576815605164</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.610332727432251</v>
+        <v>0.7035497426986694</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6725332140922546</v>
+        <v>0.879047691822052</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6209896802902222</v>
+        <v>0.4317934811115265</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2746850550174713</v>
+        <v>0.7192760109901428</v>
       </c>
     </row>
     <row r="59">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8586931824684143</v>
+        <v>0.8011413216590881</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3664977550506592</v>
+        <v>0.9198954701423645</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6260229349136353</v>
+        <v>0.5363618135452271</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6803908348083496</v>
+        <v>0.6706743240356445</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7562181949615479</v>
+        <v>0.6388825178146362</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.882060706615448</v>
+        <v>0.7049912214279175</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.8432633876800537</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.406631737947464</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.415810763835907</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6518977880477905</v>
+        <v>0.7518115043640137</v>
       </c>
     </row>
     <row r="69">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6540703177452087</v>
+        <v>0.5500491261482239</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8370208740234375</v>
+        <v>0.7731282711029053</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7261727452278137</v>
+        <v>0.9643122553825378</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7938928008079529</v>
+        <v>0.3391622304916382</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7410008311271667</v>
+        <v>0.9198954701423645</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6685434579849243</v>
+        <v>0.4394560754299164</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9038986563682556</v>
+        <v>0.7147800922393799</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7260522246360779</v>
+        <v>0.6955325603485107</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7317559719085693</v>
+        <v>0.7174723744392395</v>
       </c>
     </row>
     <row r="78">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2615,10 +2615,10 @@
         </is>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8463159203529358</v>
+        <v>0.3443626463413239</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8536593317985535</v>
+        <v>0.681721568107605</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.7420188784599304</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7989922165870667</v>
+        <v>0.871768593788147</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4271019101142883</v>
+        <v>0.79274982213974</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.557959258556366</v>
+        <v>0.9198954701423645</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7149141430854797</v>
+        <v>0.4228047132492065</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3268075287342072</v>
+        <v>0.2946545779705048</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6917718648910522</v>
+        <v>0.909207284450531</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8272379636764526</v>
+        <v>0.7863027453422546</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6623983979225159</v>
+        <v>0.9459211826324463</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.7397863864898682</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6514861583709717</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8752297759056091</v>
+        <v>0.8753079175949097</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4321354329586029</v>
+        <v>0.9198954701423645</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7834616303443909</v>
+        <v>0.7664048671722412</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9608252644538879</v>
+        <v>0.3391622304916382</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8118965625762939</v>
+        <v>0.4042220413684845</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5722142457962036</v>
+        <v>0.3277497589588165</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6983257532119751</v>
+        <v>0.6430478692054749</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7483063340187073</v>
+        <v>0.7989745736122131</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5755126476287842</v>
+        <v>0.437849372625351</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7096242904663086</v>
+        <v>0.4483547508716583</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5067138671875</v>
+        <v>0.7029882669448853</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7074151635169983</v>
+        <v>0.6249375343322754</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.457660973072052</v>
+        <v>0.9414232969284058</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7476043701171875</v>
+        <v>0.5889076590538025</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7846715450286865</v>
+        <v>0.9198954701423645</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8260906934738159</v>
+        <v>0.9154888391494751</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5762776732444763</v>
+        <v>0.437849372625351</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5828590989112854</v>
+        <v>0.8734617829322815</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3319239020347595</v>
+        <v>0.8563262820243835</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4207332730293274</v>
+        <v>0.6940321326255798</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6926071047782898</v>
+        <v>0.6646357774734497</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.633561372756958</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5328977704048157</v>
+        <v>0.3941406309604645</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3043346703052521</v>
+        <v>0.4592134356498718</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.6058288812637329</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8068639636039734</v>
+        <v>0.4392776787281036</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6652425527572632</v>
+        <v>0.7340790629386902</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3175888359546661</v>
+        <v>0.6203833818435669</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6620946526527405</v>
+        <v>0.6161402463912964</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8647841811180115</v>
+        <v>0.7649090886116028</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7614847421646118</v>
+        <v>0.321230947971344</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3705701231956482</v>
+        <v>0.8605669736862183</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.797533392906189</v>
+        <v>0.7276427149772644</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9018098115921021</v>
+        <v>0.8322180509567261</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3153397142887115</v>
+        <v>0.6543852686882019</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7293035984039307</v>
+        <v>0.3637233376502991</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.7002221345901489</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7714985013008118</v>
+        <v>0.9198954701423645</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5525924563407898</v>
+        <v>0.6145188212394714</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6111173629760742</v>
+        <v>0.6336719989776611</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.7201017141342163</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7970415353775024</v>
+        <v>0.6475375294685364</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.784224808216095</v>
+        <v>0.6286238431930542</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7282664179801941</v>
+        <v>0.6380819082260132</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8868401646614075</v>
+        <v>0.8113107681274414</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3454103469848633</v>
+        <v>0.9198954701423645</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5518166422843933</v>
+        <v>0.6784793734550476</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.759843647480011</v>
+        <v>0.3950302600860596</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8573207855224609</v>
+        <v>0.4267911911010742</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3697643876075745</v>
+        <v>0.5833249688148499</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7601314783096313</v>
+        <v>0.3307502269744873</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5919524431228638</v>
+        <v>0.2948651611804962</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7240288257598877</v>
+        <v>0.6893038153648376</v>
       </c>
     </row>
     <row r="144">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9049091935157776</v>
+        <v>0.3880969285964966</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.379835844039917</v>
+        <v>0.5790711045265198</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4246189892292023</v>
+        <v>0.8298934102058411</v>
       </c>
     </row>
     <row r="147">
@@ -4543,14 +4543,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3601167798042297</v>
+        <v>0.3506685197353363</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4576249718666077</v>
+        <v>0.8960092663764954</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9080799221992493</v>
+        <v>0.4294291436672211</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3433354496955872</v>
+        <v>0.4828440546989441</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6579011678695679</v>
+        <v>0.6229777932167053</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7369323968887329</v>
+        <v>0.9001073241233826</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7374277710914612</v>
+        <v>0.8471363186836243</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7626975774765015</v>
+        <v>0.4038188457489014</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3801847696304321</v>
+        <v>0.8124766945838928</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6145060062408447</v>
+        <v>0.7115393280982971</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7255806922912598</v>
+        <v>0.7527328729629517</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8444327712059021</v>
+        <v>0.3606361746788025</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4688326120376587</v>
+        <v>0.67508864402771</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5629863142967224</v>
+        <v>0.8027369379997253</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5346721410751343</v>
+        <v>0.8019564747810364</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9301773309707642</v>
+        <v>0.7443681955337524</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6674061417579651</v>
+        <v>0.7521279454231262</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.68412184715271</v>
+        <v>0.2804023325443268</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6451618075370789</v>
+        <v>0.5620466470718384</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6269026398658752</v>
+        <v>0.7420188784599304</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7140589952468872</v>
+        <v>0.6430478692054749</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.8083720803260803</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8616759777069092</v>
+        <v>0.6199972629547119</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.3423899710178375</v>
+        <v>0.5540319681167603</v>
       </c>
     </row>
     <row r="171">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.437300056219101</v>
+        <v>0.321230947971344</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8192811012268066</v>
+        <v>0.3363775312900543</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3000292479991913</v>
+        <v>0.4149289727210999</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8341501951217651</v>
+        <v>0.8808828592300415</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5952574014663696</v>
+        <v>0.9414232969284058</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5513302087783813</v>
+        <v>0.8929543495178223</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7109676003456116</v>
+        <v>0.746225893497467</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6461493968963623</v>
+        <v>0.3643236756324768</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6451894044876099</v>
+        <v>0.7362657785415649</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.3085410296916962</v>
+        <v>0.80562824010849</v>
       </c>
     </row>
     <row r="181">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.3098060488700867</v>
+        <v>0.5523507595062256</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.732082724571228</v>
+        <v>0.5997429490089417</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3678449988365173</v>
+        <v>0.7711867094039917</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.8005301952362061</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7610421776771545</v>
+        <v>0.2600099742412567</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4783370792865753</v>
+        <v>0.4228047132492065</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5014992952346802</v>
+        <v>0.8497084379196167</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8508758544921875</v>
+        <v>0.5889076590538025</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4387083053588867</v>
+        <v>0.9433268904685974</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4298675954341888</v>
+        <v>0.5629653334617615</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8011881113052368</v>
+        <v>0.7386443614959717</v>
       </c>
     </row>
     <row r="192">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4789687097072601</v>
+        <v>0.9001073241233826</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6837407350540161</v>
+        <v>0.5819763541221619</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4179013967514038</v>
+        <v>0.3643236756324768</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5662136673927307</v>
+        <v>0.5388295650482178</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.829389750957489</v>
+        <v>0.8357837796211243</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6992573142051697</v>
+        <v>0.6843834519386292</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9329718351364136</v>
+        <v>0.9082853198051453</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4429530799388885</v>
+        <v>0.3218172788619995</v>
       </c>
     </row>
     <row r="200">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7625828385353088</v>
+        <v>0.4343385100364685</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.453845888376236</v>
+        <v>0.6067186594009399</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6824764609336853</v>
+        <v>0.5395063161849976</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.7524481415748596</v>
+        <v>0.3443626463413239</v>
       </c>
     </row>
     <row r="204">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4703140556812286</v>
+        <v>0.7037187218666077</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8830776214599609</v>
+        <v>0.6908284425735474</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.6041008830070496</v>
+        <v>0.5367780327796936</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3361645042896271</v>
+        <v>0.6459476351737976</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7532668113708496</v>
+        <v>0.6430478692054749</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9346122145652771</v>
+        <v>0.7695701718330383</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7079700827598572</v>
+        <v>0.6539182066917419</v>
       </c>
     </row>
   </sheetData>
